--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -60,8 +60,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 数值
-2 百分比
+1 同级装备,武器攻击的百分比
+2 固定值
  </t>
         </r>
       </text>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>_ID</t>
   </si>
@@ -82,13 +82,16 @@
     <t>类型</t>
   </si>
   <si>
-    <t>LevelRequired</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
-    <t>属性值</t>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>所属装备位置</t>
   </si>
   <si>
     <t>Id</t>
@@ -103,7 +106,13 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Val</t>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>PartList</t>
   </si>
   <si>
     <t>int</t>
@@ -112,52 +121,37 @@
     <t>string</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>0级装备固定生命</t>
-  </si>
-  <si>
-    <t>0级装备固定物理攻击</t>
-  </si>
-  <si>
-    <t>0级装备固定魔法攻击</t>
-  </si>
-  <si>
-    <t>0级装备固定道术攻击</t>
-  </si>
-  <si>
-    <t>0级装备固定防御</t>
-  </si>
-  <si>
-    <t>10级装备固定生命</t>
-  </si>
-  <si>
-    <t>10级装备固定物理攻击</t>
-  </si>
-  <si>
-    <t>10级装备固定魔法攻击</t>
-  </si>
-  <si>
-    <t>10级装备固定道术攻击</t>
-  </si>
-  <si>
-    <t>10级装备固定防御</t>
-  </si>
-  <si>
-    <t>20级装备固定生命</t>
-  </si>
-  <si>
-    <t>20级装备固定物理攻击</t>
-  </si>
-  <si>
-    <t>20级装备固定魔法攻击</t>
-  </si>
-  <si>
-    <t>20级装备固定道术攻击</t>
-  </si>
-  <si>
-    <t>20级装备固定防御</t>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,9,10</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>1,3,7,9</t>
+  </si>
+  <si>
+    <t>魔法攻击</t>
+  </si>
+  <si>
+    <t>道术攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>2,4,5,10</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
 </sst>
 </file>
@@ -801,16 +795,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1131,87 +1121,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H22"/>
+  <dimension ref="C3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
-    <col min="10" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="19.25" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="2" customWidth="1"/>
+    <col min="10" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
+    <row r="5" spans="3:9">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1221,17 +1219,20 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1">
+        <v>150</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1241,17 +1242,20 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:9">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1261,17 +1265,20 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:9">
       <c r="C9" s="2">
         <v>10004</v>
       </c>
@@ -1281,17 +1288,20 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:9">
       <c r="C10" s="2">
         <v>10005</v>
       </c>
@@ -1301,228 +1311,45 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
       </c>
       <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="2">
+        <v>10007</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:8">
-      <c r="C11" s="1">
-        <v>10101</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:8">
-      <c r="C12" s="1">
-        <v>10102</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="1">
-        <v>10103</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="2">
-        <v>10104</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="2">
-        <v>10105</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:8">
-      <c r="C16" s="1">
-        <v>10201</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:8">
-      <c r="C17" s="1">
-        <v>10202</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="1">
-        <v>10203</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="2">
-        <v>10204</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="2">
-        <v>10205</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4:F5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,F3)&lt;2</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:E5 G3:G5 C3:D5" errorStyle="warning">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:E5 F3:F5 C3:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>_ID</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>1,3</t>
+  </si>
+  <si>
+    <t>经验加成</t>
+  </si>
+  <si>
+    <t>爆率加成</t>
+  </si>
+  <si>
+    <t>金币加成</t>
   </si>
 </sst>
 </file>
@@ -1121,12 +1130,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I11"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1347,6 +1356,75 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="2">
+        <v>10008</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="2">
+        <v>10009</v>
+      </c>
+      <c r="D13" s="2">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="2">
+        <v>10010</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:E5 F3:F5 C3:D5" errorStyle="warning">

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>_ID</t>
   </si>
@@ -94,6 +94,9 @@
     <t>所属装备位置</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -106,15 +109,21 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
+    <t>MinValue</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
   </si>
   <si>
     <t>PartList</t>
   </si>
   <si>
+    <t>MinLevel</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -161,12 +170,18 @@
   </si>
   <si>
     <t>金币加成</t>
+  </si>
+  <si>
+    <t>品质加成</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -195,34 +210,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -236,14 +223,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +262,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,7 +327,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,49 +380,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,121 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,21 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,6 +603,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,148 +674,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -814,52 +829,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1130,12 +1145,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I14"/>
+  <dimension ref="C3:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1144,12 +1159,13 @@
     <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="2" customWidth="1"/>
-    <col min="10" max="14" width="9" style="2"/>
+    <col min="10" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9" style="2"/>
     <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1171,56 +1187,74 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:9">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1229,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>150</v>
@@ -1238,12 +1272,18 @@
         <v>150</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:9">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:11">
       <c r="C7" s="1">
-        <v>10002</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1252,21 +1292,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
       <c r="C8" s="1">
-        <v>10003</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -1275,21 +1321,27 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
       </c>
       <c r="H8" s="1">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" s="2">
-        <v>10004</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1298,21 +1350,27 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="2">
-        <v>10005</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -1321,21 +1379,27 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="2">
-        <v>10007</v>
+        <v>701</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -1344,47 +1408,59 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2">
+        <v>702</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="2">
-        <v>10008</v>
-      </c>
-      <c r="D12" s="2">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
       <c r="C13" s="2">
-        <v>10009</v>
+        <v>703</v>
       </c>
       <c r="D13" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1393,36 +1469,1010 @@
         <v>28</v>
       </c>
       <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2">
+        <v>141</v>
+      </c>
+      <c r="K13" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="2">
+        <v>704</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2">
+        <v>211</v>
+      </c>
+      <c r="K14" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="2">
+        <v>705</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2">
+        <v>281</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="2">
+        <v>801</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2">
+        <v>802</v>
+      </c>
+      <c r="D17" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="2">
-        <v>10010</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
+        <v>51</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="2">
+        <v>803</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2">
+        <v>101</v>
+      </c>
+      <c r="K18" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2">
+        <v>804</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2">
+        <v>151</v>
+      </c>
+      <c r="K19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2">
+        <v>805</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2">
+        <v>201</v>
+      </c>
+      <c r="K20" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2">
+        <v>806</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2">
+        <v>251</v>
+      </c>
+      <c r="K21" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="2">
+        <v>807</v>
+      </c>
+      <c r="D22" s="2">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <v>301</v>
+      </c>
+      <c r="K22" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2">
+        <v>808</v>
+      </c>
+      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2">
+        <v>351</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="2">
+        <v>1901</v>
+      </c>
+      <c r="D24" s="2">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="2">
+        <v>1902</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H25" s="2">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2">
+        <v>51</v>
+      </c>
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="2">
+        <v>1903</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
         <v>20</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2">
+        <v>101</v>
+      </c>
+      <c r="K26" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="2">
+        <v>1904</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2">
+        <v>151</v>
+      </c>
+      <c r="K27" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="2">
+        <v>1905</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2">
+        <v>201</v>
+      </c>
+      <c r="K28" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="2">
+        <v>1906</v>
+      </c>
+      <c r="D29" s="2">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="2">
+        <v>1907</v>
+      </c>
+      <c r="D30" s="2">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2">
+        <v>301</v>
+      </c>
+      <c r="K30" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="2">
+        <v>1908</v>
+      </c>
+      <c r="D31" s="2">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2">
+        <v>351</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2">
+        <v>51</v>
+      </c>
+      <c r="K33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D34" s="2">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2">
+        <v>101</v>
+      </c>
+      <c r="K34" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2">
+        <v>25</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2">
+        <v>151</v>
+      </c>
+      <c r="K35" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D36" s="2">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="2">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2">
+        <v>201</v>
+      </c>
+      <c r="K36" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D37" s="2">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="2">
+        <v>25</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2">
+        <v>251</v>
+      </c>
+      <c r="K37" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <v>301</v>
+      </c>
+      <c r="K38" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D39" s="2">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="2">
+        <v>35</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2">
+        <v>351</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="2">
+        <v>2401</v>
+      </c>
+      <c r="D40" s="2">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="2">
+        <v>2402</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2">
+        <v>51</v>
+      </c>
+      <c r="K41" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="2">
+        <v>2403</v>
+      </c>
+      <c r="D42" s="2">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2">
+        <v>101</v>
+      </c>
+      <c r="K42" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="2">
+        <v>2404</v>
+      </c>
+      <c r="D43" s="2">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>25</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2">
+        <v>151</v>
+      </c>
+      <c r="K43" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="2">
+        <v>2405</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="2">
+        <v>201</v>
+      </c>
+      <c r="K44" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="2">
+        <v>2406</v>
+      </c>
+      <c r="D45" s="2">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2">
+        <v>35</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2">
+        <v>251</v>
+      </c>
+      <c r="K45" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="2">
+        <v>2407</v>
+      </c>
+      <c r="D46" s="2">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2">
+        <v>301</v>
+      </c>
+      <c r="K46" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="2">
+        <v>2408</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2">
+        <v>35</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2">
+        <v>351</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -1150,7 +1150,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
@@ -1585,10 +1585,10 @@
         <v>30</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>21</v>
@@ -1614,10 +1614,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>21</v>
@@ -1643,10 +1643,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>21</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>21</v>
@@ -1701,10 +1701,10 @@
         <v>30</v>
       </c>
       <c r="G21" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>21</v>
@@ -1730,10 +1730,10 @@
         <v>30</v>
       </c>
       <c r="G22" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>21</v>
@@ -1759,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="G23" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>21</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1817,10 +1817,10 @@
         <v>31</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>21</v>
@@ -1846,10 +1846,10 @@
         <v>31</v>
       </c>
       <c r="G26" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>21</v>
@@ -1875,10 +1875,10 @@
         <v>31</v>
       </c>
       <c r="G27" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>21</v>
@@ -1904,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="G28" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>21</v>
@@ -1933,10 +1933,10 @@
         <v>31</v>
       </c>
       <c r="G29" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>21</v>
@@ -1962,10 +1962,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H30" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>21</v>
@@ -1991,10 +1991,10 @@
         <v>31</v>
       </c>
       <c r="G31" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>21</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>21</v>
@@ -2049,10 +2049,10 @@
         <v>32</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>21</v>
@@ -2078,10 +2078,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>21</v>
@@ -2107,10 +2107,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H35" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
@@ -2136,10 +2136,10 @@
         <v>32</v>
       </c>
       <c r="G36" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>21</v>
@@ -2165,10 +2165,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>21</v>
@@ -2194,10 +2194,10 @@
         <v>32</v>
       </c>
       <c r="G38" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H38" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>21</v>
@@ -2223,10 +2223,10 @@
         <v>32</v>
       </c>
       <c r="G39" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>21</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>21</v>
@@ -2281,10 +2281,10 @@
         <v>33</v>
       </c>
       <c r="G41" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>21</v>
@@ -2310,10 +2310,10 @@
         <v>33</v>
       </c>
       <c r="G42" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>21</v>
@@ -2339,10 +2339,10 @@
         <v>33</v>
       </c>
       <c r="G43" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H43" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>21</v>
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="G44" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -2397,10 +2397,10 @@
         <v>33</v>
       </c>
       <c r="G45" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -2426,10 +2426,10 @@
         <v>33</v>
       </c>
       <c r="G46" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -2455,10 +2455,10 @@
         <v>33</v>
       </c>
       <c r="G47" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H47" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>_ID</t>
   </si>
@@ -175,7 +175,13 @@
     <t>品质加成</t>
   </si>
   <si>
-    <t>s</t>
+    <t>物攻加成</t>
+  </si>
+  <si>
+    <t>魔法加成</t>
+  </si>
+  <si>
+    <t>道术加成</t>
   </si>
 </sst>
 </file>
@@ -1145,12 +1151,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L52"/>
+  <dimension ref="C3:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16:H23"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2470,11 +2476,532 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="12:12">
-      <c r="L52" s="2" t="s">
+    <row r="49" spans="3:11">
+      <c r="C49" s="2">
+        <v>2601</v>
+      </c>
+      <c r="D49" s="2">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="2">
+        <v>2602</v>
+      </c>
+      <c r="D50" s="2">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2">
+        <v>101</v>
+      </c>
+      <c r="K50" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="C51" s="2">
+        <v>2603</v>
+      </c>
+      <c r="D51" s="2">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2">
+        <v>201</v>
+      </c>
+      <c r="K51" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="C52" s="2">
+        <v>2604</v>
+      </c>
+      <c r="D52" s="2">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2">
+        <v>301</v>
+      </c>
+      <c r="K52" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="C53" s="2">
+        <v>2605</v>
+      </c>
+      <c r="D53" s="2">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2">
+        <v>401</v>
+      </c>
+      <c r="K53" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="C54" s="2">
+        <v>2606</v>
+      </c>
+      <c r="D54" s="2">
+        <v>26</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2">
+        <v>501</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" s="2">
+        <v>2701</v>
+      </c>
+      <c r="D56" s="2">
+        <v>27</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" s="2">
+        <v>2702</v>
+      </c>
+      <c r="D57" s="2">
+        <v>27</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="2">
+        <v>101</v>
+      </c>
+      <c r="K57" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="C58" s="2">
+        <v>2703</v>
+      </c>
+      <c r="D58" s="2">
+        <v>27</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="2">
+        <v>201</v>
+      </c>
+      <c r="K58" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11">
+      <c r="C59" s="2">
+        <v>2704</v>
+      </c>
+      <c r="D59" s="2">
+        <v>27</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2">
+        <v>301</v>
+      </c>
+      <c r="K59" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11">
+      <c r="C60" s="2">
+        <v>2705</v>
+      </c>
+      <c r="D60" s="2">
+        <v>27</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="2">
+        <v>401</v>
+      </c>
+      <c r="K60" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11">
+      <c r="C61" s="2">
+        <v>2706</v>
+      </c>
+      <c r="D61" s="2">
+        <v>27</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2">
+        <v>501</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="C63" s="2">
+        <v>2801</v>
+      </c>
+      <c r="D63" s="2">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="C64" s="2">
+        <v>2802</v>
+      </c>
+      <c r="D64" s="2">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2">
+        <v>101</v>
+      </c>
+      <c r="K64" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
+      <c r="C65" s="2">
+        <v>2803</v>
+      </c>
+      <c r="D65" s="2">
+        <v>28</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="2">
+        <v>201</v>
+      </c>
+      <c r="K65" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="C66" s="2">
+        <v>2804</v>
+      </c>
+      <c r="D66" s="2">
+        <v>28</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="2">
+        <v>301</v>
+      </c>
+      <c r="K66" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="C67" s="2">
+        <v>2805</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="2">
+        <v>401</v>
+      </c>
+      <c r="K67" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11">
+      <c r="C68" s="2">
+        <v>2806</v>
+      </c>
+      <c r="D68" s="2">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="2">
+        <v>501</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:E5 F3:F5 C3:D5" errorStyle="warning">

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -42,62 +42,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 同级装备,武器攻击的百分比
-2 固定值
- </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>_ID</t>
-  </si>
-  <si>
-    <t>属性ID</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>所属装备位置</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>Id</t>
   </si>
   <si>
     <t>AttrId</t>
@@ -106,7 +58,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Desc</t>
+    <t>描述</t>
   </si>
   <si>
     <t>MinValue</t>
@@ -122,6 +74,15 @@
   </si>
   <si>
     <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>MaxQuality</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>int</t>
@@ -360,12 +321,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1151,27 +1112,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K70"/>
+  <dimension ref="C3:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="8.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="14" width="9" style="2"/>
+    <col min="10" max="12" width="13" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
     <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1197,79 +1159,88 @@
         <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>150</v>
@@ -1278,7 +1249,7 @@
         <v>150</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1286,8 +1257,11 @@
       <c r="K6" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1298,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
@@ -1307,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1315,8 +1289,11 @@
       <c r="K7" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="8" spans="3:11">
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1327,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
@@ -1336,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1344,8 +1321,11 @@
       <c r="K8" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="9" spans="3:11">
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1356,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
@@ -1365,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1373,8 +1353,11 @@
       <c r="K9" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="10" spans="3:11">
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -1385,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
@@ -1394,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1402,8 +1385,11 @@
       <c r="K10" s="1">
         <v>99999</v>
       </c>
-    </row>
-    <row r="11" spans="3:11">
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="2">
         <v>701</v>
       </c>
@@ -1414,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1423,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1431,8 +1417,11 @@
       <c r="K11" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="3:11">
+      <c r="L11" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
       <c r="C12" s="2">
         <v>702</v>
       </c>
@@ -1443,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1452,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2">
         <v>71</v>
@@ -1460,8 +1449,11 @@
       <c r="K12" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="3:11">
+      <c r="L12" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" s="2">
         <v>703</v>
       </c>
@@ -1472,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1481,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
         <v>141</v>
@@ -1489,8 +1481,11 @@
       <c r="K13" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="3:11">
+      <c r="L13" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
       <c r="C14" s="2">
         <v>704</v>
       </c>
@@ -1501,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
@@ -1510,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2">
         <v>211</v>
@@ -1518,8 +1513,11 @@
       <c r="K14" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="3:11">
+      <c r="L14" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
       <c r="C15" s="2">
         <v>705</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -1539,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2">
         <v>281</v>
@@ -1547,8 +1545,11 @@
       <c r="K15" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="3:11">
+      <c r="L15" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
       <c r="C16" s="2">
         <v>801</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1568,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1576,8 +1577,11 @@
       <c r="K16" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="3:11">
+      <c r="L16" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
       <c r="C17" s="2">
         <v>802</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
@@ -1597,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J17" s="2">
         <v>51</v>
@@ -1605,8 +1609,11 @@
       <c r="K17" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="L17" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
       <c r="C18" s="2">
         <v>803</v>
       </c>
@@ -1617,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -1626,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J18" s="2">
         <v>101</v>
@@ -1634,8 +1641,11 @@
       <c r="K18" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="3:11">
+      <c r="L18" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="2">
         <v>804</v>
       </c>
@@ -1646,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2">
         <v>4</v>
@@ -1655,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J19" s="2">
         <v>151</v>
@@ -1663,8 +1673,11 @@
       <c r="K19" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="L19" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
       <c r="C20" s="2">
         <v>805</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -1684,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J20" s="2">
         <v>201</v>
@@ -1692,8 +1705,11 @@
       <c r="K20" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="3:11">
+      <c r="L20" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="2">
         <v>806</v>
       </c>
@@ -1704,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2">
         <v>6</v>
@@ -1713,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J21" s="2">
         <v>251</v>
@@ -1721,8 +1737,11 @@
       <c r="K21" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="3:11">
+      <c r="L21" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="2">
         <v>807</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2">
         <v>7</v>
@@ -1742,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J22" s="2">
         <v>301</v>
@@ -1750,8 +1769,11 @@
       <c r="K22" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="23" spans="3:11">
+      <c r="L22" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="2">
         <v>808</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2">
         <v>8</v>
@@ -1771,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J23" s="2">
         <v>351</v>
@@ -1779,8 +1801,11 @@
       <c r="K23" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="3:11">
+      <c r="L23" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" s="2">
         <v>1901</v>
       </c>
@@ -1791,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1800,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -1808,8 +1833,11 @@
       <c r="K24" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="3:11">
+      <c r="L24" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25" s="2">
         <v>1902</v>
       </c>
@@ -1820,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -1829,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J25" s="2">
         <v>51</v>
@@ -1837,8 +1865,11 @@
       <c r="K25" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="3:11">
+      <c r="L25" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" s="2">
         <v>1903</v>
       </c>
@@ -1849,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -1858,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J26" s="2">
         <v>101</v>
@@ -1866,8 +1897,11 @@
       <c r="K26" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="3:11">
+      <c r="L26" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
       <c r="C27" s="2">
         <v>1904</v>
       </c>
@@ -1878,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -1887,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J27" s="2">
         <v>151</v>
@@ -1895,8 +1929,11 @@
       <c r="K27" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:11">
+      <c r="L27" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
       <c r="C28" s="2">
         <v>1905</v>
       </c>
@@ -1907,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
@@ -1916,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J28" s="2">
         <v>201</v>
@@ -1924,8 +1961,11 @@
       <c r="K28" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="3:11">
+      <c r="L28" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
       <c r="C29" s="2">
         <v>1906</v>
       </c>
@@ -1936,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G29" s="2">
         <v>6</v>
@@ -1945,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J29" s="2">
         <v>251</v>
@@ -1953,8 +1993,11 @@
       <c r="K29" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="30" spans="3:11">
+      <c r="L29" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
       <c r="C30" s="2">
         <v>1907</v>
       </c>
@@ -1965,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G30" s="2">
         <v>7</v>
@@ -1974,7 +2017,7 @@
         <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J30" s="2">
         <v>301</v>
@@ -1982,8 +2025,11 @@
       <c r="K30" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="31" spans="3:11">
+      <c r="L30" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
       <c r="C31" s="2">
         <v>1908</v>
       </c>
@@ -1994,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G31" s="2">
         <v>8</v>
@@ -2003,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J31" s="2">
         <v>351</v>
@@ -2011,8 +2057,11 @@
       <c r="K31" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="3:11">
+      <c r="L31" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
       <c r="C32" s="2">
         <v>2001</v>
       </c>
@@ -2023,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2032,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2040,8 +2089,11 @@
       <c r="K32" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="3:11">
+      <c r="L32" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
       <c r="C33" s="2">
         <v>2002</v>
       </c>
@@ -2052,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -2061,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J33" s="2">
         <v>51</v>
@@ -2069,8 +2121,11 @@
       <c r="K33" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="3:11">
+      <c r="L33" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
       <c r="C34" s="2">
         <v>2003</v>
       </c>
@@ -2081,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
@@ -2090,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2">
         <v>101</v>
@@ -2098,8 +2153,11 @@
       <c r="K34" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="3:11">
+      <c r="L34" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
       <c r="C35" s="2">
         <v>2004</v>
       </c>
@@ -2110,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2">
         <v>4</v>
@@ -2119,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J35" s="2">
         <v>151</v>
@@ -2127,8 +2185,11 @@
       <c r="K35" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="3:11">
+      <c r="L35" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
       <c r="C36" s="2">
         <v>2005</v>
       </c>
@@ -2139,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2">
         <v>5</v>
@@ -2148,7 +2209,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J36" s="2">
         <v>201</v>
@@ -2156,8 +2217,11 @@
       <c r="K36" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="37" spans="3:11">
+      <c r="L36" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
       <c r="C37" s="2">
         <v>2006</v>
       </c>
@@ -2168,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
@@ -2177,7 +2241,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J37" s="2">
         <v>251</v>
@@ -2185,8 +2249,11 @@
       <c r="K37" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="38" spans="3:11">
+      <c r="L37" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
       <c r="C38" s="2">
         <v>2007</v>
       </c>
@@ -2197,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G38" s="2">
         <v>7</v>
@@ -2206,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J38" s="2">
         <v>301</v>
@@ -2214,8 +2281,11 @@
       <c r="K38" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="39" spans="3:11">
+      <c r="L38" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
       <c r="C39" s="2">
         <v>2008</v>
       </c>
@@ -2226,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G39" s="2">
         <v>8</v>
@@ -2235,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J39" s="2">
         <v>351</v>
@@ -2243,8 +2313,11 @@
       <c r="K39" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="3:11">
+      <c r="L39" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
       <c r="C40" s="2">
         <v>2401</v>
       </c>
@@ -2255,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -2264,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2272,8 +2345,11 @@
       <c r="K40" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="3:11">
+      <c r="L40" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
       <c r="C41" s="2">
         <v>2402</v>
       </c>
@@ -2284,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
@@ -2293,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J41" s="2">
         <v>51</v>
@@ -2301,8 +2377,11 @@
       <c r="K41" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="3:11">
+      <c r="L41" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
       <c r="C42" s="2">
         <v>2403</v>
       </c>
@@ -2313,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
@@ -2322,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J42" s="2">
         <v>101</v>
@@ -2330,8 +2409,11 @@
       <c r="K42" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="43" spans="3:11">
+      <c r="L42" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
       <c r="C43" s="2">
         <v>2404</v>
       </c>
@@ -2342,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G43" s="2">
         <v>4</v>
@@ -2351,7 +2433,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J43" s="2">
         <v>151</v>
@@ -2359,8 +2441,11 @@
       <c r="K43" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="3:11">
+      <c r="L43" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
       <c r="C44" s="2">
         <v>2405</v>
       </c>
@@ -2371,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G44" s="2">
         <v>5</v>
@@ -2380,7 +2465,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J44" s="2">
         <v>201</v>
@@ -2388,8 +2473,11 @@
       <c r="K44" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="3:11">
+      <c r="L44" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
       <c r="C45" s="2">
         <v>2406</v>
       </c>
@@ -2400,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
@@ -2409,7 +2497,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J45" s="2">
         <v>251</v>
@@ -2417,8 +2505,11 @@
       <c r="K45" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="3:11">
+      <c r="L45" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
       <c r="C46" s="2">
         <v>2407</v>
       </c>
@@ -2429,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G46" s="2">
         <v>7</v>
@@ -2438,7 +2529,7 @@
         <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J46" s="2">
         <v>301</v>
@@ -2446,8 +2537,11 @@
       <c r="K46" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="47" spans="3:11">
+      <c r="L46" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
       <c r="C47" s="2">
         <v>2408</v>
       </c>
@@ -2458,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G47" s="2">
         <v>8</v>
@@ -2467,7 +2561,7 @@
         <v>40</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J47" s="2">
         <v>351</v>
@@ -2475,8 +2569,11 @@
       <c r="K47" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:11">
+      <c r="L47" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
       <c r="C49" s="2">
         <v>2601</v>
       </c>
@@ -2487,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -2496,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -2504,8 +2601,11 @@
       <c r="K49" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11">
+      <c r="L49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
       <c r="C50" s="2">
         <v>2602</v>
       </c>
@@ -2516,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -2525,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J50" s="2">
         <v>101</v>
@@ -2533,8 +2633,11 @@
       <c r="K50" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="3:11">
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
       <c r="C51" s="2">
         <v>2603</v>
       </c>
@@ -2545,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -2554,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J51" s="2">
         <v>201</v>
@@ -2562,8 +2665,11 @@
       <c r="K51" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="3:11">
+      <c r="L51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
       <c r="C52" s="2">
         <v>2604</v>
       </c>
@@ -2574,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -2583,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J52" s="2">
         <v>301</v>
@@ -2591,8 +2697,11 @@
       <c r="K52" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:11">
+      <c r="L52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
       <c r="C53" s="2">
         <v>2605</v>
       </c>
@@ -2603,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -2612,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J53" s="2">
         <v>401</v>
@@ -2620,8 +2729,11 @@
       <c r="K53" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="54" spans="3:11">
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
       <c r="C54" s="2">
         <v>2606</v>
       </c>
@@ -2632,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -2641,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J54" s="2">
         <v>501</v>
@@ -2649,11 +2761,14 @@
       <c r="K54" s="2">
         <v>1000</v>
       </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:12">
       <c r="C56" s="2">
         <v>2701</v>
       </c>
@@ -2664,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -2673,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -2681,8 +2796,11 @@
       <c r="K56" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="3:11">
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
       <c r="C57" s="2">
         <v>2702</v>
       </c>
@@ -2693,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -2702,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J57" s="2">
         <v>101</v>
@@ -2710,8 +2828,11 @@
       <c r="K57" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:11">
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
       <c r="C58" s="2">
         <v>2703</v>
       </c>
@@ -2722,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -2731,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2">
         <v>201</v>
@@ -2739,8 +2860,11 @@
       <c r="K58" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:11">
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
       <c r="C59" s="2">
         <v>2704</v>
       </c>
@@ -2751,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -2760,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2">
         <v>301</v>
@@ -2768,8 +2892,11 @@
       <c r="K59" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:11">
+      <c r="L59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
       <c r="C60" s="2">
         <v>2705</v>
       </c>
@@ -2780,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -2789,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J60" s="2">
         <v>401</v>
@@ -2797,8 +2924,11 @@
       <c r="K60" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:11">
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
       <c r="C61" s="2">
         <v>2706</v>
       </c>
@@ -2809,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -2818,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J61" s="2">
         <v>501</v>
@@ -2826,8 +2956,11 @@
       <c r="K61" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="63" spans="3:11">
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
       <c r="C63" s="2">
         <v>2801</v>
       </c>
@@ -2838,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -2847,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -2855,8 +2988,11 @@
       <c r="K63" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="3:11">
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
       <c r="C64" s="2">
         <v>2802</v>
       </c>
@@ -2867,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -2876,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J64" s="2">
         <v>101</v>
@@ -2884,8 +3020,11 @@
       <c r="K64" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="3:11">
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
       <c r="C65" s="2">
         <v>2803</v>
       </c>
@@ -2896,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -2905,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J65" s="2">
         <v>201</v>
@@ -2913,8 +3052,11 @@
       <c r="K65" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="3:11">
+      <c r="L65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
       <c r="C66" s="2">
         <v>2804</v>
       </c>
@@ -2925,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -2934,7 +3076,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J66" s="2">
         <v>301</v>
@@ -2942,8 +3084,11 @@
       <c r="K66" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="3:11">
+      <c r="L66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
       <c r="C67" s="2">
         <v>2805</v>
       </c>
@@ -2954,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -2963,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J67" s="2">
         <v>401</v>
@@ -2971,8 +3116,11 @@
       <c r="K67" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="68" spans="3:11">
+      <c r="L67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
       <c r="C68" s="2">
         <v>2806</v>
       </c>
@@ -2983,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -2992,19 +3140,22 @@
         <v>5</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J68" s="2">
         <v>501</v>
       </c>
       <c r="K68" s="2">
         <v>1000</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:E5 F3:F5 C3:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 E4:E5 F3:F5 C4:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="35">
   <si>
     <t>_ID</t>
   </si>
@@ -117,13 +117,16 @@
     <t>PartList</t>
   </si>
   <si>
-    <t>MinLevel</t>
+    <t>StartLevel</t>
   </si>
   <si>
-    <t>MaxLevel</t>
+    <t>EndLevel</t>
   </si>
   <si>
-    <t>MaxQuality</t>
+    <t>StartQuality</t>
+  </si>
+  <si>
+    <t>EndQuality</t>
   </si>
   <si>
     <t>MaxCount</t>
@@ -374,12 +377,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1165,12 +1168,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N65"/>
+  <dimension ref="C3:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1180,12 +1183,14 @@
     <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,10 +1227,13 @@
       <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="3:14">
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1234,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -1260,46 +1268,52 @@
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="3:14">
+      <c r="O4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6" s="1">
         <v>701</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1319,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1328,16 +1342,19 @@
         <v>70</v>
       </c>
       <c r="L6" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
       <c r="C7" s="1">
         <v>702</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1357,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1">
         <v>71</v>
@@ -1366,16 +1383,19 @@
         <v>140</v>
       </c>
       <c r="L7" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
       <c r="C8" s="1">
         <v>703</v>
       </c>
@@ -1386,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1395,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1">
         <v>141</v>
@@ -1404,16 +1424,19 @@
         <v>210</v>
       </c>
       <c r="L8" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
       <c r="C9" s="1">
         <v>704</v>
       </c>
@@ -1424,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1433,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1">
         <v>211</v>
@@ -1442,16 +1465,19 @@
         <v>280</v>
       </c>
       <c r="L9" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
       <c r="C10" s="1">
         <v>705</v>
       </c>
@@ -1462,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1471,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1">
         <v>281</v>
@@ -1480,16 +1506,19 @@
         <v>1000</v>
       </c>
       <c r="L10" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
       <c r="C11" s="1">
         <v>801</v>
       </c>
@@ -1500,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1509,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1518,16 +1547,19 @@
         <v>50</v>
       </c>
       <c r="L11" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
       <c r="C12" s="1">
         <v>802</v>
       </c>
@@ -1538,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1547,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1">
         <v>51</v>
@@ -1556,16 +1588,19 @@
         <v>100</v>
       </c>
       <c r="L12" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
       <c r="C13" s="1">
         <v>803</v>
       </c>
@@ -1576,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1585,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1">
         <v>101</v>
@@ -1594,16 +1629,19 @@
         <v>150</v>
       </c>
       <c r="L13" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
       <c r="C14" s="1">
         <v>804</v>
       </c>
@@ -1614,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -1623,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1">
         <v>151</v>
@@ -1632,16 +1670,19 @@
         <v>200</v>
       </c>
       <c r="L14" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
       <c r="C15" s="1">
         <v>805</v>
       </c>
@@ -1652,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
@@ -1661,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1">
         <v>201</v>
@@ -1670,16 +1711,19 @@
         <v>250</v>
       </c>
       <c r="L15" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
       <c r="C16" s="1">
         <v>806</v>
       </c>
@@ -1690,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1">
         <v>6</v>
@@ -1699,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1">
         <v>251</v>
@@ -1708,16 +1752,19 @@
         <v>300</v>
       </c>
       <c r="L16" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17" s="1">
         <v>807</v>
       </c>
@@ -1728,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>7</v>
@@ -1737,7 +1784,7 @@
         <v>35</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1">
         <v>301</v>
@@ -1746,16 +1793,19 @@
         <v>350</v>
       </c>
       <c r="L17" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18" s="1">
         <v>808</v>
       </c>
@@ -1766,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
@@ -1775,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1">
         <v>351</v>
@@ -1784,16 +1834,19 @@
         <v>1000</v>
       </c>
       <c r="L18" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="C19" s="1">
         <v>1901</v>
       </c>
@@ -1804,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1813,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1822,16 +1875,19 @@
         <v>50</v>
       </c>
       <c r="L19" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="C20" s="1">
         <v>1902</v>
       </c>
@@ -1842,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1851,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1">
         <v>51</v>
@@ -1860,16 +1916,19 @@
         <v>100</v>
       </c>
       <c r="L20" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="C21" s="1">
         <v>1903</v>
       </c>
@@ -1880,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1889,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1">
         <v>101</v>
@@ -1898,16 +1957,19 @@
         <v>150</v>
       </c>
       <c r="L21" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="C22" s="1">
         <v>1904</v>
       </c>
@@ -1918,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
@@ -1927,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1">
         <v>151</v>
@@ -1936,16 +1998,19 @@
         <v>200</v>
       </c>
       <c r="L22" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="C23" s="1">
         <v>1905</v>
       </c>
@@ -1956,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -1965,7 +2030,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1">
         <v>201</v>
@@ -1974,16 +2039,19 @@
         <v>250</v>
       </c>
       <c r="L23" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="C24" s="1">
         <v>1906</v>
       </c>
@@ -1994,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1">
         <v>6</v>
@@ -2003,7 +2071,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1">
         <v>251</v>
@@ -2012,16 +2080,19 @@
         <v>300</v>
       </c>
       <c r="L24" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25" s="1">
         <v>1907</v>
       </c>
@@ -2032,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1">
         <v>7</v>
@@ -2041,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1">
         <v>301</v>
@@ -2050,16 +2121,19 @@
         <v>350</v>
       </c>
       <c r="L25" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
       <c r="C26" s="1">
         <v>1908</v>
       </c>
@@ -2070,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
@@ -2079,7 +2153,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1">
         <v>351</v>
@@ -2088,16 +2162,19 @@
         <v>1000</v>
       </c>
       <c r="L26" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27" s="1">
         <v>2001</v>
       </c>
@@ -2108,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -2117,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2126,16 +2203,19 @@
         <v>50</v>
       </c>
       <c r="L27" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28" s="1">
         <v>2002</v>
       </c>
@@ -2146,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
@@ -2155,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
         <v>51</v>
@@ -2164,16 +2244,19 @@
         <v>100</v>
       </c>
       <c r="L28" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29" s="1">
         <v>2003</v>
       </c>
@@ -2184,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -2193,7 +2276,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1">
         <v>101</v>
@@ -2202,16 +2285,19 @@
         <v>150</v>
       </c>
       <c r="L29" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30" s="1">
         <v>2004</v>
       </c>
@@ -2222,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
@@ -2231,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1">
         <v>151</v>
@@ -2240,16 +2326,19 @@
         <v>200</v>
       </c>
       <c r="L30" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
       <c r="C31" s="1">
         <v>2005</v>
       </c>
@@ -2260,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -2269,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1">
         <v>201</v>
@@ -2278,16 +2367,19 @@
         <v>250</v>
       </c>
       <c r="L31" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
       <c r="C32" s="1">
         <v>2006</v>
       </c>
@@ -2298,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1">
         <v>6</v>
@@ -2307,7 +2399,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" s="1">
         <v>251</v>
@@ -2316,16 +2408,19 @@
         <v>300</v>
       </c>
       <c r="L32" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33" s="1">
         <v>2007</v>
       </c>
@@ -2336,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1">
         <v>7</v>
@@ -2345,7 +2440,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1">
         <v>301</v>
@@ -2354,16 +2449,19 @@
         <v>350</v>
       </c>
       <c r="L33" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34" s="1">
         <v>2008</v>
       </c>
@@ -2374,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1">
         <v>8</v>
@@ -2383,7 +2481,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1">
         <v>351</v>
@@ -2392,16 +2490,19 @@
         <v>1000</v>
       </c>
       <c r="L34" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
       <c r="C35" s="1">
         <v>2401</v>
       </c>
@@ -2412,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2421,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2430,16 +2531,19 @@
         <v>50</v>
       </c>
       <c r="L35" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
       <c r="C36" s="1">
         <v>2402</v>
       </c>
@@ -2450,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -2459,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1">
         <v>51</v>
@@ -2468,16 +2572,19 @@
         <v>100</v>
       </c>
       <c r="L36" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
       <c r="C37" s="1">
         <v>2403</v>
       </c>
@@ -2488,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
@@ -2497,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1">
         <v>101</v>
@@ -2506,16 +2613,19 @@
         <v>150</v>
       </c>
       <c r="L37" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
       <c r="C38" s="1">
         <v>2404</v>
       </c>
@@ -2526,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1">
         <v>4</v>
@@ -2535,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J38" s="1">
         <v>151</v>
@@ -2544,16 +2654,19 @@
         <v>200</v>
       </c>
       <c r="L38" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
       <c r="C39" s="1">
         <v>2405</v>
       </c>
@@ -2564,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1">
         <v>5</v>
@@ -2573,7 +2686,7 @@
         <v>25</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J39" s="1">
         <v>201</v>
@@ -2582,16 +2695,19 @@
         <v>250</v>
       </c>
       <c r="L39" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
       <c r="C40" s="1">
         <v>2406</v>
       </c>
@@ -2602,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G40" s="1">
         <v>6</v>
@@ -2611,7 +2727,7 @@
         <v>30</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" s="1">
         <v>251</v>
@@ -2620,16 +2736,19 @@
         <v>300</v>
       </c>
       <c r="L40" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
       <c r="C41" s="1">
         <v>2407</v>
       </c>
@@ -2640,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1">
         <v>7</v>
@@ -2649,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" s="1">
         <v>301</v>
@@ -2658,16 +2777,19 @@
         <v>350</v>
       </c>
       <c r="L41" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
       <c r="C42" s="1">
         <v>2408</v>
       </c>
@@ -2678,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1">
         <v>8</v>
@@ -2687,7 +2809,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" s="1">
         <v>351</v>
@@ -2696,16 +2818,19 @@
         <v>1000</v>
       </c>
       <c r="L42" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
       <c r="C44" s="1">
         <v>2601</v>
       </c>
@@ -2716,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -2725,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -2733,17 +2858,20 @@
       <c r="K44" s="1">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>6</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14">
+      <c r="N44" s="3">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
       <c r="C45" s="1">
         <v>2602</v>
       </c>
@@ -2754,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -2763,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" s="1">
         <v>101</v>
@@ -2771,17 +2899,20 @@
       <c r="K45" s="1">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>6</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14">
+      <c r="N45" s="3">
+        <v>6</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
       <c r="C46" s="1">
         <v>2603</v>
       </c>
@@ -2792,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -2801,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1">
         <v>201</v>
@@ -2809,17 +2940,20 @@
       <c r="K46" s="1">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
-        <v>6</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14">
+      <c r="N46" s="3">
+        <v>6</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
       <c r="C47" s="1">
         <v>2604</v>
       </c>
@@ -2830,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2839,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1">
         <v>301</v>
@@ -2847,17 +2981,20 @@
       <c r="K47" s="1">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>6</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14">
+      <c r="N47" s="3">
+        <v>6</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
       <c r="C48" s="1">
         <v>2605</v>
       </c>
@@ -2868,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -2877,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48" s="1">
         <v>401</v>
@@ -2885,17 +3022,20 @@
       <c r="K48" s="1">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>6</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14">
+      <c r="N48" s="3">
+        <v>6</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
       <c r="C49" s="1">
         <v>2606</v>
       </c>
@@ -2906,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2915,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1">
         <v>501</v>
@@ -2923,20 +3063,23 @@
       <c r="K49" s="1">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>6</v>
-      </c>
-      <c r="N49" s="1">
+      <c r="N49" s="3">
+        <v>6</v>
+      </c>
+      <c r="O49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:15">
       <c r="C51" s="1">
         <v>2701</v>
       </c>
@@ -2947,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -2956,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -2964,17 +3107,20 @@
       <c r="K51" s="1">
         <v>100</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
         <v>4</v>
       </c>
-      <c r="M51" s="3">
-        <v>6</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14">
+      <c r="N51" s="3">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
       <c r="C52" s="1">
         <v>2702</v>
       </c>
@@ -2985,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -2994,7 +3140,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1">
         <v>101</v>
@@ -3002,17 +3148,20 @@
       <c r="K52" s="1">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>6</v>
-      </c>
-      <c r="N52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14">
+      <c r="N52" s="3">
+        <v>6</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
       <c r="C53" s="1">
         <v>2703</v>
       </c>
@@ -3023,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -3032,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J53" s="1">
         <v>201</v>
@@ -3040,17 +3189,20 @@
       <c r="K53" s="1">
         <v>300</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
         <v>4</v>
       </c>
-      <c r="M53" s="3">
-        <v>6</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14">
+      <c r="N53" s="3">
+        <v>6</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
       <c r="C54" s="1">
         <v>2704</v>
       </c>
@@ -3061,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -3070,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J54" s="1">
         <v>301</v>
@@ -3078,17 +3230,20 @@
       <c r="K54" s="1">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
-        <v>6</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14">
+      <c r="N54" s="3">
+        <v>6</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
       <c r="C55" s="1">
         <v>2705</v>
       </c>
@@ -3099,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -3108,7 +3263,7 @@
         <v>5</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J55" s="1">
         <v>401</v>
@@ -3116,17 +3271,20 @@
       <c r="K55" s="1">
         <v>500</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
         <v>4</v>
       </c>
-      <c r="M55" s="3">
-        <v>6</v>
-      </c>
-      <c r="N55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14">
+      <c r="N55" s="3">
+        <v>6</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
       <c r="C56" s="1">
         <v>2706</v>
       </c>
@@ -3137,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -3146,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" s="1">
         <v>501</v>
@@ -3154,17 +3312,20 @@
       <c r="K56" s="1">
         <v>1000</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3">
         <v>4</v>
       </c>
-      <c r="M56" s="3">
-        <v>6</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14">
+      <c r="N56" s="3">
+        <v>6</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15">
       <c r="C58" s="1">
         <v>2801</v>
       </c>
@@ -3175,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -3184,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -3192,17 +3353,20 @@
       <c r="K58" s="1">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>6</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14">
+      <c r="N58" s="3">
+        <v>6</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15">
       <c r="C59" s="1">
         <v>2802</v>
       </c>
@@ -3213,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -3222,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J59" s="1">
         <v>101</v>
@@ -3230,17 +3394,20 @@
       <c r="K59" s="1">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>6</v>
-      </c>
-      <c r="N59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14">
+      <c r="N59" s="3">
+        <v>6</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15">
       <c r="C60" s="1">
         <v>2803</v>
       </c>
@@ -3251,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -3260,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="1">
         <v>201</v>
@@ -3268,17 +3435,20 @@
       <c r="K60" s="1">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
-        <v>6</v>
-      </c>
-      <c r="N60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
+      <c r="N60" s="3">
+        <v>6</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
       <c r="C61" s="1">
         <v>2804</v>
       </c>
@@ -3289,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -3298,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J61" s="1">
         <v>301</v>
@@ -3306,17 +3476,20 @@
       <c r="K61" s="1">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
         <v>4</v>
       </c>
-      <c r="M61" s="3">
-        <v>6</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14">
+      <c r="N61" s="3">
+        <v>6</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15">
       <c r="C62" s="1">
         <v>2805</v>
       </c>
@@ -3327,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -3336,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J62" s="1">
         <v>401</v>
@@ -3344,17 +3517,20 @@
       <c r="K62" s="1">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>6</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
+      <c r="N62" s="3">
+        <v>6</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15">
       <c r="C63" s="1">
         <v>2806</v>
       </c>
@@ -3365,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -3374,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J63" s="1">
         <v>501</v>
@@ -3382,13 +3558,16 @@
       <c r="K63" s="1">
         <v>1000</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
         <v>4</v>
       </c>
-      <c r="M63" s="3">
-        <v>6</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="N63" s="3">
+        <v>6</v>
+      </c>
+      <c r="O63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3409,10 +3588,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N25"/>
+  <dimension ref="C3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3422,12 +3601,14 @@
     <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:14">
+    <row r="3" s="1" customFormat="1" spans="3:15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3464,10 +3645,13 @@
       <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:14">
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:15">
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -3476,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -3502,46 +3686,52 @@
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:14">
+      <c r="O4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:15">
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -3552,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -3561,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1">
         <v>750</v>
@@ -3570,16 +3760,19 @@
         <v>1050</v>
       </c>
       <c r="L6" s="1">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1">
         <v>6</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -3590,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -3599,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>750</v>
@@ -3608,16 +3801,19 @@
         <v>1050</v>
       </c>
       <c r="L7" s="1">
-        <v>999</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -3628,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3637,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1">
         <v>750</v>
@@ -3646,16 +3842,19 @@
         <v>1050</v>
       </c>
       <c r="L8" s="1">
-        <v>999</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -3666,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -3675,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1">
         <v>750</v>
@@ -3684,16 +3883,19 @@
         <v>1050</v>
       </c>
       <c r="L9" s="1">
-        <v>999</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:14">
+    <row r="10" s="1" customFormat="1" spans="3:15">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -3704,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -3713,7 +3915,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1">
         <v>750</v>
@@ -3722,16 +3924,19 @@
         <v>1050</v>
       </c>
       <c r="L10" s="1">
-        <v>999</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -3742,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -3751,7 +3956,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1">
         <v>750</v>
@@ -3760,16 +3965,19 @@
         <v>1050</v>
       </c>
       <c r="L11" s="1">
-        <v>999</v>
-      </c>
-      <c r="M11" s="3">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:15">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -3780,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -3789,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1">
         <v>750</v>
@@ -3798,16 +4006,19 @@
         <v>1050</v>
       </c>
       <c r="L12" s="1">
-        <v>999</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:14">
+    <row r="13" s="1" customFormat="1" spans="3:15">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -3818,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -3827,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1">
         <v>750</v>
@@ -3836,16 +4047,19 @@
         <v>1050</v>
       </c>
       <c r="L13" s="1">
-        <v>999</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:15">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -3856,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -3865,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1">
         <v>750</v>
@@ -3874,16 +4088,19 @@
         <v>1050</v>
       </c>
       <c r="L14" s="1">
-        <v>999</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:15">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -3894,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3903,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1">
         <v>750</v>
@@ -3912,16 +4129,19 @@
         <v>1050</v>
       </c>
       <c r="L15" s="1">
-        <v>999</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:14">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:15">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -3932,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1">
         <v>25</v>
@@ -3941,7 +4161,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1">
         <v>750</v>
@@ -3950,16 +4170,19 @@
         <v>1050</v>
       </c>
       <c r="L16" s="1">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:15">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -3970,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1">
         <v>25</v>
@@ -3979,7 +4202,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1">
         <v>750</v>
@@ -3988,16 +4211,19 @@
         <v>1050</v>
       </c>
       <c r="L17" s="1">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:14">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:15">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -4008,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>25</v>
@@ -4017,7 +4243,7 @@
         <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1">
         <v>750</v>
@@ -4026,16 +4252,19 @@
         <v>1050</v>
       </c>
       <c r="L18" s="1">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="M18" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:14">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:15">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -4046,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1">
         <v>25</v>
@@ -4055,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <v>750</v>
@@ -4064,46 +4293,41 @@
         <v>1050</v>
       </c>
       <c r="L19" s="1">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="M19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="9:14">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="9:15">
       <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="9:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="9:15">
       <c r="I21" s="3"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="9:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="9:15">
       <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="9:14">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="9:15">
       <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="普通装备" sheetId="1" r:id="rId1"/>
     <sheet name="红装" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
   <si>
     <t>_ID</t>
   </si>
@@ -183,6 +183,12 @@
     <t>物攻倍率</t>
   </si>
   <si>
+    <t>魔法倍率</t>
+  </si>
+  <si>
+    <t>道术倍率</t>
+  </si>
+  <si>
     <t>物伤加成</t>
   </si>
   <si>
@@ -195,10 +201,10 @@
     <t>攻击倍率</t>
   </si>
   <si>
-    <t>生命加成</t>
+    <t>防御加成</t>
   </si>
   <si>
-    <t>防御倍率</t>
+    <t>生命倍率</t>
   </si>
 </sst>
 </file>
@@ -1171,9 +1177,9 @@
   <dimension ref="C3:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:H5"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="$A43:$XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3591,7 +3597,7 @@
   <dimension ref="C3:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E19"/>
+      <selection activeCell="O7" sqref="O7:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3777,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>26</v>
+        <v>2004</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3818,13 +3824,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>26</v>
+        <v>2005</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3859,13 +3865,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>26</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -3900,13 +3906,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -3941,13 +3947,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -3982,13 +3988,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -4023,13 +4029,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>27</v>
+        <v>2001</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -4064,13 +4070,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>27</v>
+        <v>2002</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -4105,13 +4111,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>27</v>
+        <v>2003</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通装备" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
   <sheetPr/>
   <dimension ref="C3:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A43" sqref="$A43:$XFD63"/>
@@ -3596,8 +3596,8 @@
   <sheetPr/>
   <dimension ref="C3:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4182,7 +4182,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="N17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="N18" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="N19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
   <si>
     <t>_ID</t>
   </si>
@@ -201,10 +201,16 @@
     <t>攻击倍率</t>
   </si>
   <si>
-    <t>防御加成</t>
+    <t>防御倍率</t>
   </si>
   <si>
     <t>生命倍率</t>
+  </si>
+  <si>
+    <t>减伤倍率</t>
+  </si>
+  <si>
+    <t>2,4,5,9,10</t>
   </si>
 </sst>
 </file>
@@ -383,12 +389,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3597,7 +3603,7 @@
   <dimension ref="C3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4311,11 +4317,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="9:15">
-      <c r="I20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+    <row r="20" s="1" customFormat="1" spans="3:15">
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1">
+        <v>750</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1050</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="9:15">
       <c r="I21" s="3"/>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="普通装备" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="39">
   <si>
     <t>_ID</t>
   </si>
@@ -389,12 +389,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1180,12 +1180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O65"/>
+  <dimension ref="C3:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="$A43:$XFD63"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1843,7 +1843,7 @@
         <v>351</v>
       </c>
       <c r="K18" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1860,31 +1860,31 @@
     </row>
     <row r="19" spans="3:15">
       <c r="C19" s="1">
-        <v>1901</v>
+        <v>809</v>
       </c>
       <c r="D19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="K19" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
@@ -1899,50 +1899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
-      <c r="C20" s="1">
-        <v>1902</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1">
-        <v>51</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" s="1">
-        <v>6</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
+    <row r="20" spans="9:9">
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:15">
       <c r="C21" s="1">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -1954,19 +1916,19 @@
         <v>22</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -1983,7 +1945,7 @@
     </row>
     <row r="22" spans="3:15">
       <c r="C22" s="1">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D22" s="1">
         <v>19</v>
@@ -1995,19 +1957,19 @@
         <v>22</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="1">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="K22" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -2024,7 +1986,7 @@
     </row>
     <row r="23" spans="3:15">
       <c r="C23" s="1">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D23" s="1">
         <v>19</v>
@@ -2036,19 +1998,19 @@
         <v>22</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="1">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="K23" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2065,7 +2027,7 @@
     </row>
     <row r="24" spans="3:15">
       <c r="C24" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D24" s="1">
         <v>19</v>
@@ -2077,19 +2039,19 @@
         <v>22</v>
       </c>
       <c r="G24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="1">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="K24" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2106,7 +2068,7 @@
     </row>
     <row r="25" spans="3:15">
       <c r="C25" s="1">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D25" s="1">
         <v>19</v>
@@ -2118,19 +2080,19 @@
         <v>22</v>
       </c>
       <c r="G25" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="1">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="K25" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -2147,7 +2109,7 @@
     </row>
     <row r="26" spans="3:15">
       <c r="C26" s="1">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="D26" s="1">
         <v>19</v>
@@ -2159,19 +2121,19 @@
         <v>22</v>
       </c>
       <c r="G26" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="1">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="K26" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2188,31 +2150,31 @@
     </row>
     <row r="27" spans="3:15">
       <c r="C27" s="1">
-        <v>2001</v>
+        <v>1907</v>
       </c>
       <c r="D27" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="K27" s="1">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -2229,31 +2191,31 @@
     </row>
     <row r="28" spans="3:15">
       <c r="C28" s="1">
-        <v>2002</v>
+        <v>1908</v>
       </c>
       <c r="D28" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="1">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -2270,31 +2232,31 @@
     </row>
     <row r="29" spans="3:15">
       <c r="C29" s="1">
-        <v>2003</v>
+        <v>1909</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="1">
-        <v>101</v>
+        <v>901</v>
       </c>
       <c r="K29" s="1">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -2309,50 +2271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
-      <c r="C30" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D30" s="1">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4</v>
-      </c>
-      <c r="H30" s="1">
-        <v>20</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="1">
-        <v>151</v>
-      </c>
-      <c r="K30" s="1">
-        <v>200</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
-        <v>5</v>
-      </c>
-      <c r="N30" s="1">
-        <v>6</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
+    <row r="30" spans="9:9">
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:15">
       <c r="C31" s="1">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -2364,19 +2288,19 @@
         <v>23</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="1">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2393,7 +2317,7 @@
     </row>
     <row r="32" spans="3:15">
       <c r="C32" s="1">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D32" s="1">
         <v>20</v>
@@ -2405,19 +2329,19 @@
         <v>23</v>
       </c>
       <c r="G32" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="1">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="K32" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -2434,7 +2358,7 @@
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="1">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
@@ -2446,19 +2370,19 @@
         <v>23</v>
       </c>
       <c r="G33" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="1">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K33" s="1">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
@@ -2475,7 +2399,7 @@
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="1">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D34" s="1">
         <v>20</v>
@@ -2487,19 +2411,19 @@
         <v>23</v>
       </c>
       <c r="G34" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="1">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="K34" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
@@ -2516,31 +2440,31 @@
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="1">
-        <v>2401</v>
+        <v>2005</v>
       </c>
       <c r="D35" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K35" s="1">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -2557,31 +2481,31 @@
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="1">
-        <v>2402</v>
+        <v>2006</v>
       </c>
       <c r="D36" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="1">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="K36" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -2598,31 +2522,31 @@
     </row>
     <row r="37" spans="3:15">
       <c r="C37" s="1">
-        <v>2403</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H37" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K37" s="1">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -2639,31 +2563,31 @@
     </row>
     <row r="38" spans="3:15">
       <c r="C38" s="1">
-        <v>2404</v>
+        <v>2008</v>
       </c>
       <c r="D38" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="1">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="K38" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2680,7 +2604,7 @@
     </row>
     <row r="39" spans="3:15">
       <c r="C39" s="1">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="D39" s="1">
         <v>24</v>
@@ -2692,19 +2616,19 @@
         <v>24</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="1">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>
@@ -2721,7 +2645,7 @@
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="1">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="D40" s="1">
         <v>24</v>
@@ -2733,19 +2657,19 @@
         <v>24</v>
       </c>
       <c r="G40" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="1">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="K40" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2762,7 +2686,7 @@
     </row>
     <row r="41" spans="3:15">
       <c r="C41" s="1">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="D41" s="1">
         <v>24</v>
@@ -2774,19 +2698,19 @@
         <v>24</v>
       </c>
       <c r="G41" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="1">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K41" s="1">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -2803,7 +2727,7 @@
     </row>
     <row r="42" spans="3:15">
       <c r="C42" s="1">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="D42" s="1">
         <v>24</v>
@@ -2815,19 +2739,19 @@
         <v>24</v>
       </c>
       <c r="G42" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="1">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="K42" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
@@ -2839,44 +2763,85 @@
         <v>6</v>
       </c>
       <c r="O42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="1">
+        <v>2405</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>25</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="1">
+        <v>201</v>
+      </c>
+      <c r="K43" s="1">
+        <v>250</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>6</v>
+      </c>
+      <c r="O43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="1">
-        <v>2601</v>
+        <v>2406</v>
       </c>
       <c r="D44" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H44" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="K44" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L44" s="1">
         <v>1</v>
       </c>
-      <c r="M44" s="3">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="1">
+        <v>5</v>
+      </c>
+      <c r="N44" s="1">
         <v>6</v>
       </c>
       <c r="O44" s="1">
@@ -2885,39 +2850,39 @@
     </row>
     <row r="45" spans="3:15">
       <c r="C45" s="1">
-        <v>2602</v>
+        <v>2407</v>
       </c>
       <c r="D45" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H45" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K45" s="1">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
       </c>
-      <c r="M45" s="3">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="M45" s="1">
+        <v>5</v>
+      </c>
+      <c r="N45" s="1">
         <v>6</v>
       </c>
       <c r="O45" s="1">
@@ -2926,39 +2891,39 @@
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="1">
-        <v>2603</v>
+        <v>2408</v>
       </c>
       <c r="D46" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H46" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="1">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="K46" s="1">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="3">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
         <v>6</v>
       </c>
       <c r="O46" s="1">
@@ -2967,89 +2932,48 @@
     </row>
     <row r="47" spans="3:15">
       <c r="C47" s="1">
-        <v>2604</v>
+        <v>2409</v>
       </c>
       <c r="D47" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J47" s="1">
-        <v>301</v>
+        <v>901</v>
       </c>
       <c r="K47" s="1">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="M47" s="3">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
         <v>6</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15">
-      <c r="C48" s="1">
-        <v>2605</v>
-      </c>
-      <c r="D48" s="1">
-        <v>26</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="1">
-        <v>401</v>
-      </c>
-      <c r="K48" s="1">
-        <v>500</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6</v>
-      </c>
-      <c r="O48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:15">
       <c r="C49" s="1">
-        <v>2606</v>
+        <v>2601</v>
       </c>
       <c r="D49" s="1">
         <v>26</v>
@@ -3064,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="1">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L49" s="1">
         <v>1</v>
@@ -3088,36 +3012,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="3"/>
+    <row r="50" spans="3:15">
+      <c r="C50" s="1">
+        <v>2602</v>
+      </c>
+      <c r="D50" s="1">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="1">
+        <v>101</v>
+      </c>
+      <c r="K50" s="1">
+        <v>200</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>4</v>
+      </c>
+      <c r="N50" s="3">
+        <v>6</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="3:15">
       <c r="C51" s="1">
-        <v>2701</v>
+        <v>2603</v>
       </c>
       <c r="D51" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K51" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
@@ -3134,31 +3096,31 @@
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="1">
-        <v>2702</v>
+        <v>2604</v>
       </c>
       <c r="D52" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K52" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -3175,16 +3137,16 @@
     </row>
     <row r="53" spans="3:15">
       <c r="C53" s="1">
-        <v>2703</v>
+        <v>2605</v>
       </c>
       <c r="D53" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -3196,10 +3158,10 @@
         <v>21</v>
       </c>
       <c r="J53" s="1">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="K53" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -3216,16 +3178,16 @@
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="1">
-        <v>2704</v>
+        <v>2606</v>
       </c>
       <c r="D54" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -3237,10 +3199,10 @@
         <v>21</v>
       </c>
       <c r="J54" s="1">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="K54" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L54" s="1">
         <v>1</v>
@@ -3255,50 +3217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:15">
-      <c r="C55" s="1">
-        <v>2705</v>
-      </c>
-      <c r="D55" s="1">
-        <v>27</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1">
-        <v>5</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="1">
-        <v>401</v>
-      </c>
-      <c r="K55" s="1">
-        <v>500</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3">
-        <v>4</v>
-      </c>
-      <c r="N55" s="3">
-        <v>6</v>
-      </c>
-      <c r="O55" s="1">
-        <v>0</v>
-      </c>
+    <row r="55" spans="9:9">
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="3:15">
       <c r="C56" s="1">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="D56" s="1">
         <v>27</v>
@@ -3313,16 +3237,16 @@
         <v>1</v>
       </c>
       <c r="H56" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="1">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
@@ -3337,33 +3261,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="3:15">
+      <c r="C57" s="1">
+        <v>2702</v>
+      </c>
+      <c r="D57" s="1">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="1">
+        <v>101</v>
+      </c>
+      <c r="K57" s="1">
+        <v>200</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>6</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="58" spans="3:15">
       <c r="C58" s="1">
-        <v>2801</v>
+        <v>2703</v>
       </c>
       <c r="D58" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K58" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
@@ -3380,31 +3345,31 @@
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="1">
-        <v>2802</v>
+        <v>2704</v>
       </c>
       <c r="D59" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K59" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
@@ -3421,16 +3386,16 @@
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="1">
-        <v>2803</v>
+        <v>2705</v>
       </c>
       <c r="D60" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -3442,10 +3407,10 @@
         <v>21</v>
       </c>
       <c r="J60" s="1">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="K60" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L60" s="1">
         <v>1</v>
@@ -3462,16 +3427,16 @@
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="1">
-        <v>2804</v>
+        <v>2706</v>
       </c>
       <c r="D61" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -3483,10 +3448,10 @@
         <v>21</v>
       </c>
       <c r="J61" s="1">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="K61" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L61" s="1">
         <v>1</v>
@@ -3501,50 +3466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:15">
-      <c r="C62" s="1">
-        <v>2805</v>
-      </c>
-      <c r="D62" s="1">
-        <v>28</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="1">
-        <v>401</v>
-      </c>
-      <c r="K62" s="1">
-        <v>500</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>6</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="63" spans="3:15">
       <c r="C63" s="1">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="D63" s="1">
         <v>28</v>
@@ -3559,16 +3483,16 @@
         <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="1">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
@@ -3583,7 +3507,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1"/>
+    <row r="64" spans="3:15">
+      <c r="C64" s="1">
+        <v>2802</v>
+      </c>
+      <c r="D64" s="1">
+        <v>28</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="1">
+        <v>101</v>
+      </c>
+      <c r="K64" s="1">
+        <v>200</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
+        <v>4</v>
+      </c>
+      <c r="N64" s="3">
+        <v>6</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
+      <c r="C65" s="1">
+        <v>2803</v>
+      </c>
+      <c r="D65" s="1">
+        <v>28</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="1">
+        <v>201</v>
+      </c>
+      <c r="K65" s="1">
+        <v>300</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <v>4</v>
+      </c>
+      <c r="N65" s="3">
+        <v>6</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" s="1">
+        <v>2804</v>
+      </c>
+      <c r="D66" s="1">
+        <v>28</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="1">
+        <v>301</v>
+      </c>
+      <c r="K66" s="1">
+        <v>400</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
+        <v>6</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="C67" s="1">
+        <v>2805</v>
+      </c>
+      <c r="D67" s="1">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="1">
+        <v>401</v>
+      </c>
+      <c r="K67" s="1">
+        <v>500</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>4</v>
+      </c>
+      <c r="N67" s="3">
+        <v>6</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="C68" s="1">
+        <v>2806</v>
+      </c>
+      <c r="D68" s="1">
+        <v>28</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>5</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="1">
+        <v>501</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>4</v>
+      </c>
+      <c r="N68" s="3">
+        <v>6</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 E4:E5 F3:F5 C4:D5" errorStyle="warning">
@@ -3602,7 +3731,7 @@
   <sheetPr/>
   <dimension ref="C3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通装备" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="C3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
@@ -3715,7 +3715,7 @@
     <row r="70" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 E4:E5 F3:F5 C4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E3 F3:F5 C4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3731,8 +3731,8 @@
   <sheetPr/>
   <dimension ref="C3:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4508,7 +4508,7 @@
     <row r="25" s="1" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 E4:E5 F3:F5 C4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E3 F3:F5 C4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="42">
   <si>
     <t>_ID</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>2,4,5,9,10</t>
+  </si>
+  <si>
+    <t>21,23</t>
+  </si>
+  <si>
+    <t>21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>22,24,25,27,28</t>
   </si>
 </sst>
 </file>
@@ -861,6 +870,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3715,7 +3726,7 @@
     <row r="70" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E3 F3:F5 C4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -3729,10 +3740,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O25"/>
+  <dimension ref="C3:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4493,22 +4504,460 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="9:15">
-      <c r="I22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="9:15">
-      <c r="I23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="22" s="1" customFormat="1" spans="3:15">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:15">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:15">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:15">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L25" s="1">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1">
+        <v>7</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:15">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:15">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>20</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:15">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1">
+        <v>7</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:15">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L29" s="1">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:15">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>7</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="3:15">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L31" s="1">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="3:15">
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L32" s="1">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>7</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E3 F3:F5 C4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通装备" sheetId="1" r:id="rId1"/>
@@ -3743,7 +3743,7 @@
   <dimension ref="C3:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4518,10 +4518,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>39</v>
@@ -4559,10 +4559,10 @@
         <v>28</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>40</v>
@@ -4600,10 +4600,10 @@
         <v>29</v>
       </c>
       <c r="G24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>40</v>
@@ -4641,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>40</v>
@@ -4682,10 +4682,10 @@
         <v>31</v>
       </c>
       <c r="G26" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>40</v>
@@ -4805,10 +4805,10 @@
         <v>34</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>40</v>
@@ -4826,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>40</v>
@@ -4867,7 +4867,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
@@ -4887,10 +4887,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>40</v>
@@ -4908,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>37</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>41</v>
@@ -4949,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="N32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>

--- a/Excel/AttrEntryConfig.xlsx
+++ b/Excel/AttrEntryConfig.xlsx
@@ -216,10 +216,10 @@
     <t>21,23</t>
   </si>
   <si>
-    <t>21,22,23,24,25,26,27,28</t>
+    <t>21,22,23,24,25,27,29,30</t>
   </si>
   <si>
-    <t>22,24,25,27,28</t>
+    <t>22,24,25,29,30</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3743,7 @@
   <dimension ref="C3:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
